--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetBrokenGameURLList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetBrokenGameURLList.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
-  <si>
-    <t>1 102 ID=53024 Provider=Mascot Name=Prince of Persia: Persepolis cod=21 description=&lt;html&gt;
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
+  <si>
+    <t>1 60 ID=53024 Provider=Mascot Name=Prince of Persia: Persepolis cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -25,7 +25,7 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>2 103 ID=53012 Provider=Mascot Name=Riot cod=21 description=&lt;html&gt;
+    <t>2 61 ID=53012 Provider=Mascot Name=Riot cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -36,7 +36,7 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>3 105 ID=53025 Provider=Mascot Name=the Myth cod=21 description=&lt;html&gt;
+    <t>3 62 ID=53025 Provider=Mascot Name=the Myth cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -47,7 +47,7 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>4 106 ID=53029 Provider=Mascot Name=Queen of Spades cod=21 description=&lt;html&gt;
+    <t>4 63 ID=53029 Provider=Mascot Name=Queen of Spades cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -58,28 +58,76 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>5 1380 ID=21275 Provider=Evolution Name=First Person American Roulette cod=21 description={"errors":[{"code":"V.34","message":"Table with id 302 does not exist"}]} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>6 1388 ID=23305 Provider=IGT Name=100 Pandas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>7 1402 ID=28623 Provider=Edict Name=1717 Caribbean Pirates cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>8 1404 ID=2404 Provider=EGT Name=2 Dragons cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>9 1406 ID=2401 Provider=EGT Name=20 Diamonds cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>10 1408 ID=2402 Provider=EGT Name=20 Super Dice cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>11 1411 ID=26976 Provider=Edict Name=221BBakerStreet cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>12 1418 ID=53030 Provider=Mascot Name=3 Corsairs cod=21 description=&lt;html&gt;
+    <t>5 64 ID=7001 Provider=ZeusPlay Name=40 Flaming Lines cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>6 68 ID=7006 Provider=ZeusPlay Name=Butterfly hot 10 cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>7 69 ID=7009 Provider=ZeusPlay Name=Captain nelson deluxe cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>8 70 ID=7013 Provider=ZeusPlay Name=Dice tronic cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>9 71 ID=7014 Provider=ZeusPlay Name=Disco fever cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>10 76 ID=7016 Provider=ZeusPlay Name=Fire twenty deluxe cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>11 79 ID=7017 Provider=ZeusPlay Name=Golden dice 3 cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>12 80 ID=7023 Provider=ZeusPlay Name=Hot 27 lines deluxe cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>13 81 ID=7020 Provider=ZeusPlay Name=Hot 5 deluxe cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>14 83 ID=7026 Provider=ZeusPlay Name=le mystere du prince cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>15 84 ID=7031 Provider=ZeusPlay Name=Mad cubes 25 cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>16 85 ID=7032 Provider=ZeusPlay Name=Magic charm cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>17 87 ID=7034 Provider=ZeusPlay Name=Page of fortune deluxe cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>18 89 ID=7038 Provider=ZeusPlay Name=Royal jewels cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>19 94 ID=7039 Provider=ZeusPlay Name=Snake eyes cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>20 95 ID=7040 Provider=ZeusPlay Name=Super hot cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>21 1299 ID=21275 Provider=Evolution Name=First Person American Roulette cod=21 description={"errors":[{"code":"V.34","message":"Table with id 302 does not exist"}]} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>22 1321 ID=23305 Provider=IGT Name=100 Pandas cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>23 1335 ID=28623 Provider=Edict Name=1717 Caribbean Pirates cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>24 1337 ID=2404 Provider=EGT Name=2 Dragons cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>25 1339 ID=2401 Provider=EGT Name=20 Diamonds cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>26 1341 ID=2402 Provider=EGT Name=20 Super Dice cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>27 1344 ID=26976 Provider=Edict Name=221BBakerStreet cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>28 1351 ID=53030 Provider=Mascot Name=3 Corsairs cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -90,43 +138,46 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>13 1433 ID=2405 Provider=EGT Name=40 Super Dice cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>14 1440 ID=2409 Provider=EGT Name=5 Hot Dice cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>15 1446 ID=2494 Provider=NYX Name=50 Dragons cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>16 1447 ID=2407 Provider=EGT Name=50 Horses cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>17 1539 ID=2389 Provider=Greentube Name=Always Hot Cubes cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>18 1541 ID=2370 Provider=Greentube Name=Always Hot Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>19 1544 ID=2411 Provider=EGT Name=Amazing Amazonia cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>20 1547 ID=26970 Provider=Edict Name=Amazonia cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>21 1555 ID=29394 Provider=Edict Name=Amu Tep cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>22 1557 ID=29492 Provider=Edict Name=Amulet of the Pharaoh cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>23 1562 ID=75383 Provider=Edict Name=Ancient World Deluxe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>24 1567 ID=28637 Provider=Edict Name=Ankaa's Dawn cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>25 1569 ID=53001 Provider=Mascot Name=Anksunamun: the Queen of Egypt cod=21 description=&lt;html&gt;
+    <t>29 1366 ID=2405 Provider=EGT Name=40 Super Dice cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>30 1373 ID=2409 Provider=EGT Name=5 Hot Dice cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>31 1379 ID=2494 Provider=NYX Name=50 Dragons cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>32 1380 ID=2407 Provider=EGT Name=50 Horses cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>33 1418 ID=7050 Provider=ZeusPlay Name=Abby And The Witch cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>34 1471 ID=2389 Provider=Greentube Name=Always Hot Cubes cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>35 1473 ID=2370 Provider=Greentube Name=Always Hot Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>36 1476 ID=2411 Provider=EGT Name=Amazing Amazonia cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>37 1479 ID=26970 Provider=Edict Name=Amazonia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>38 1488 ID=29394 Provider=Edict Name=Amu Tep cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>39 1490 ID=29492 Provider=Edict Name=Amulet of the Pharaoh cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>40 1495 ID=75383 Provider=Edict Name=Ancient World Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>41 1500 ID=28637 Provider=Edict Name=Ankaa's Dawn cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>42 1502 ID=53001 Provider=Mascot Name=Anksunamun: the Queen of Egypt cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -137,19 +188,7 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>26 1582 ID=25726 Provider=QuickSpin Name=Arcane Gems cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>27 1590 ID=27263 Provider=QuickSpin Name=Ark of Mystery cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>28 1593 ID=25718 Provider=QuickSpin Name=ArtemisvsMedusa cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>29 1637 ID=76285 Provider=QuickSpin Name=Azticons Chaos Clusters cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>30 1654 ID=53013 Provider=Mascot Name=Bamboo Bear cod=21 description=&lt;html&gt;
+    <t>43 1583 ID=53013 Provider=Mascot Name=Bamboo Bear cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -160,10 +199,10 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>31 1675 ID=2449 Provider=Greentube Name=Bars and Sevens cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>32 1678 ID=53026 Provider=Mascot Name=Bastet and Cats cod=21 description=&lt;html&gt;
+    <t>44 1604 ID=2449 Provider=Greentube Name=Bars and Sevens cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>45 1607 ID=53026 Provider=Mascot Name=Bastet and Cats cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -174,10 +213,10 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>33 1701 ID=2371 Provider=Greentube Name=Beetle Mania Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>34 1711 ID=53021 Provider=Mascot Name=Benny's the Biggest game cod=21 description=&lt;html&gt;
+    <t>46 1630 ID=2371 Provider=Greentube Name=Beetle Mania Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>47 1640 ID=53021 Provider=Mascot Name=Benny's the Biggest game cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -188,76 +227,64 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>35 1718 ID=28848 Provider=QuickSpin Name=Big Bad Wolf Christmas Special cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>36 1719 ID=75100 Provider=QuickSpin Name=Big Bad Wolf Megaways cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>37 1722 ID=2351 Provider=TwoWinPower Name=Big Ben cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>38 1723 ID=2495 Provider=NYX Name=Big Ben cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>39 1726 ID=27466 Provider=QuickSpin Name=Big Bot Crew cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>40 1738 ID=25282 Provider=QuickSpin Name=BigBadWolf cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>41 1742 ID=2504 Provider=NYX Name=Bingo Billions cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>42 1750 ID=29482 Provider=Edict Name=Black Hole cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>43 1775 ID=29810 Provider=Edict Name=Blackmoore Wolf cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>44 1778 ID=26975 Provider=Edict Name=BlazingStar cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>45 1783 ID=2506 Provider=NYX Name=Bloodlore Vampire clan cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>46 1786 ID=29596 Provider=QuickSpin Name=Blue Fortune cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>47 1787 ID=2412 Provider=EGT Name=Blue Heart cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>48 1818 ID=75292 Provider=QuickSpin Name=Book of Duat cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>49 1840 ID=2204 Provider=TwoWinPower Name=Book of Ra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>50 1841 ID=2372 Provider=Greentube Name=Book Of Ra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>51 1843 ID=2369 Provider=Greentube Name=Book Of Ra Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>52 1844 ID=2442 Provider=Greentube Name=Book of Ra Deluxe 6 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>53 1853 ID=2443 Provider=Greentube Name=Book of Stars cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>54 1883 ID=26378 Provider=Edict Name=BoomBastic cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>55 1900 ID=26963 Provider=Edict Name=BrilliantSparkle cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>56 1915 ID=2414 Provider=EGT Name=Burning Dice cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>57 1930 ID=29925 Provider=QuickSpin Name=Cabin Crashers cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>58 1941 ID=53005 Provider=Mascot Name=CanCan Saloon cod=21 description=&lt;html&gt;
+    <t>48 1650 ID=2351 Provider=TwoWinPower Name=Big Ben cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>49 1651 ID=2495 Provider=NYX Name=Big Ben cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>50 1669 ID=2504 Provider=NYX Name=Bingo Billions cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>51 1677 ID=29482 Provider=Edict Name=Black Hole cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>52 1702 ID=29810 Provider=Edict Name=Blackmoore Wolf cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>53 1705 ID=26975 Provider=Edict Name=BlazingStar cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>54 1710 ID=2506 Provider=NYX Name=Bloodlore Vampire clan cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>55 1713 ID=2412 Provider=EGT Name=Blue Heart cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>56 1765 ID=2204 Provider=TwoWinPower Name=Book of Ra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>57 1766 ID=2372 Provider=Greentube Name=Book Of Ra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>58 1768 ID=2369 Provider=Greentube Name=Book Of Ra Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>59 1769 ID=2442 Provider=Greentube Name=Book of Ra Deluxe 6 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>60 1778 ID=2443 Provider=Greentube Name=Book of Stars cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>61 1781 ID=26382 Provider=Fugaso Name=Book Of Tattoo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>62 1808 ID=26378 Provider=Edict Name=BoomBastic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>63 1815 ID=29974 Provider=PushGaming Name=Booty Bay cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>64 1820 ID=26349 Provider=Fugaso Name=Brave Mongoose cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>65 1825 ID=26963 Provider=Edict Name=BrilliantSparkle cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>66 1840 ID=2414 Provider=EGT Name=Burning Dice cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>67 1865 ID=53005 Provider=Mascot Name=CanCan Saloon cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -268,259 +295,241 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>59 1951 ID=26974 Provider=Edict Name=Candy&amp;Fruits cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>60 1952 ID=26962 Provider=Edict Name=CannonThunder cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>61 1957 ID=26961 Provider=Edict Name=CaptainStack cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>62 1969 ID=23289 Provider=IGT Name=Cash Coaster cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>63 1975 ID=2491 Provider=Greentube Name=Cash Runner cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>64 1976 ID=75904 Provider=QuickSpin Name=Cash Truck cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>65 1979 ID=26959 Provider=Edict Name=CashFruitsPlus cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>66 1984 ID=2416 Provider=EGT Name=Casino Mania cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>67 1992 ID=2400 Provider=EGT Name=Cats cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>68 2002 ID=75788 Provider=Edict Name=Celebrationale cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>69 2003 ID=26958 Provider=Edict Name=Centurio cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>70 2012 ID=2507 Provider=NYX Name=Cherry Blossoms cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>71 2018 ID=2450 Provider=Greentube Name=Chicago cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>72 2035 ID=2206 Provider=TwoWinPower Name=Choy Sun Doa cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>73 2036 ID=2496 Provider=NYX Name=Choy Sun Doa cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>74 2059 ID=26957 Provider=Edict Name=CoffeeHouseMystery cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>75 2061 ID=2492 Provider=Greentube Name=Coin Of Apollo cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>76 2087 ID=23292 Provider=IGT Name=Coyote Moon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>77 2106 ID=29349 Provider=QuickSpin Name=Crown of Valor cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>78 2113 ID=28849 Provider=QuickSpin Name=Crystal Prince cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>79 2114 ID=27534 Provider=QuickSpin Name=Crystal Queen cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>80 2128 ID=28626 Provider=Edict Name=Cyborg Towers cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>81 2129 ID=2509 Provider=NYX Name=D.Love On Vacation cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>82 2147 ID=23293 Provider=IGT Name=DaVinci Dual Pay cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>83 2150 ID=23294 Provider=IGT Name=Day of the Dead cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>84 2151 ID=2451 Provider=Greentube Name=Dazzling Diamonds cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>85 2160 ID=29806 Provider=Edict Name=Defenders of the Monastery cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>86 2178 ID=29471 Provider=Edict Name=Diamond and Gold cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>87 2189 ID=23295 Provider=IGT Name=Diamond Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>88 2196 ID=25289 Provider=QuickSpin Name=DiamondDuke cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>89 2203 ID=2417 Provider=EGT Name=Dice Of Ra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>90 2208 ID=29350 Provider=QuickSpin Name=Dinosaur Rage cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>91 2209 ID=26954 Provider=Edict Name=DinosaurKingdom cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>92 2219 ID=27092 Provider=QuickSpin Name=Divine Dreams cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>93 2223 ID=2508 Provider=NYX Name=Doctor Love cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>94 2229 ID=2374 Provider=Greentube Name=Dolphins' Pearl cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>95 2230 ID=2195 Provider=TwoWinPower Name=Dolphin's Pearl cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>96 2241 ID=2497 Provider=NYX Name=Double Happiness cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>97 2247 ID=26973 Provider=Edict Name=DoubleTripleChance cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>98 2257 ID=2498 Provider=NYX Name=Dragon Emperor cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>99 2276 ID=2486 Provider=Greentube Name=Dragon’s deep cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>100 2278 ID=26971 Provider=Edict Name=Dragon’sTreasure cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>101 2281 ID=76175 Provider=Edict Name=Dragons Axe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>102 2291 ID=29252 Provider=Edict Name=Dragon's Treasure II HTML5 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>103 2293 ID=27530 Provider=QuickSpin Name=DragonShrine cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>104 2295 ID=25993 Provider=Edict Name=Dragon'sMaid cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>105 2299 ID=25820 Provider=Edict Name=Dragull cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>106 2301 ID=25995 Provider=Edict Name=DreamingIsland cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>107 2306 ID=26845 Provider=QuickSpin Name=DurianDynamite cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>108 2311 ID=27481 Provider=QuickSpin Name=Dwarfs Gone Wild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>109 2316 ID=2444 Provider=Greentube Name=Dynasty of Ra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>110 2327 ID=2518 Provider=NYX Name=Eastern Dragon cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>111 2328 ID=25605 Provider=QuickSpin Name=Eastern Emeralds cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>112 2330 ID=76142 Provider=Edict Name=Eggstra Wilds cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>113 2331 ID=75341 Provider=Edict Name=Egyptian Diamonds cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>114 2345 ID=75668 Provider=Edict Name=Electric Fruit cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>115 2349 ID=26309 Provider=Edict Name=ElMolinador cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>116 2356 ID=2519 Provider=NYX Name=Emperors Garden cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>117 2359 ID=2493 Provider=Greentube Name=Empire V cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>118 2364 ID=26952 Provider=Edict Name=EndlessSummer cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>119 2366 ID=76272 Provider=Edict Name=Energy Burst cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>120 2391 ID=25370 Provider=GameArt Name=ExplosiveReels cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>121 2392 ID=2418 Provider=EGT Name=Extra Joker cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>122 2394 ID=28627 Provider=Edict Name=Extra Liner Jackpot cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>123 2397 ID=26950 Provider=Edict Name=Extra10Liner cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>124 2398 ID=26949 Provider=Edict Name=ExtraWild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>125 2399 ID=2420 Provider=EGT Name=Extremely Hot cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>126 2405 ID=2489 Provider=Greentube Name=Eye Of The Dragon cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>127 2415 ID=27523 Provider=QuickSpin Name=Fairy Gate cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>128 2420 ID=26005 Provider=Edict Name=FallenAlien cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>129 2422 ID=26946 Provider=Edict Name=FantasticFruit cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>130 2429 ID=2376 Provider=Greentube Name=Faust cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>131 2443 ID=29966 Provider=Edict Name=Fight of Terragon cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>132 2446 ID=28615 Provider=Edict Name=Fire and Ice cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>133 2453 ID=23296 Provider=IGT Name=Fire Opals cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>134 2461 ID=26945 Provider=Edict Name=FireofEgypt cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>135 2462 ID=29201 Provider=Edict Name=First Dynasty cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>136 2477 ID=2445 Provider=Greentube Name=Flamenco Roses cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>137 2479 ID=26310 Provider=Edict Name=FlamesOfEgypt cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>138 2484 ID=76339 Provider=QuickSpin Name=Flip Royale cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>139 2495 ID=25535 Provider=Edict Name=ForbiddenPrincess cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>140 2514 ID=2422 Provider=EGT Name=Fortune Spells cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>141 2521 ID=28635 Provider=Edict Name=Fountain of Fortune cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>142 2540 ID=2488 Provider=Greentube Name=Fruit Farm cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>143 2543 ID=53027 Provider=Mascot Name=Fruit Macau cod=21 description=&lt;html&gt;
+    <t>68 1875 ID=26974 Provider=Edict Name=Candy&amp;Fruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>69 1876 ID=26962 Provider=Edict Name=CannonThunder cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>70 1881 ID=26961 Provider=Edict Name=CaptainStack cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>71 1893 ID=23289 Provider=IGT Name=Cash Coaster cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>72 1899 ID=2491 Provider=Greentube Name=Cash Runner cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>73 1902 ID=26959 Provider=Edict Name=CashFruitsPlus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>74 1907 ID=2416 Provider=EGT Name=Casino Mania cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>75 1915 ID=2400 Provider=EGT Name=Cats cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>76 1925 ID=75788 Provider=Edict Name=Celebrationale cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>77 1926 ID=26958 Provider=Edict Name=Centurio cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>78 1935 ID=2507 Provider=NYX Name=Cherry Blossoms cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>79 1941 ID=2450 Provider=Greentube Name=Chicago cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>80 1957 ID=2206 Provider=TwoWinPower Name=Choy Sun Doa cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>81 1958 ID=2496 Provider=NYX Name=Choy Sun Doa cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>82 1972 ID=26362 Provider=Fugaso Name=Cleopatra's Diary cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>83 1980 ID=26957 Provider=Edict Name=CoffeeHouseMystery cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>84 1982 ID=2492 Provider=Greentube Name=Coin Of Apollo cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>85 2009 ID=23292 Provider=IGT Name=Coyote Moon cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>86 2048 ID=28626 Provider=Edict Name=Cyborg Towers cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>87 2049 ID=2509 Provider=NYX Name=D.Love On Vacation cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>88 2067 ID=23293 Provider=IGT Name=DaVinci Dual Pay cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>89 2070 ID=23294 Provider=IGT Name=Day of the Dead cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>90 2071 ID=2451 Provider=Greentube Name=Dazzling Diamonds cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>91 2080 ID=29806 Provider=Edict Name=Defenders of the Monastery cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>92 2098 ID=29471 Provider=Edict Name=Diamond and Gold cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>93 2109 ID=23295 Provider=IGT Name=Diamond Queen cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>94 2122 ID=2417 Provider=EGT Name=Dice Of Ra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>95 2126 ID=29975 Provider=PushGaming Name=Dinopolis cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>96 2127 ID=26954 Provider=Edict Name=DinosaurKingdom cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>97 2135 ID=25848 Provider=Fugaso Name=Divine Carnival cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>98 2141 ID=2508 Provider=NYX Name=Doctor Love cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>99 2147 ID=2374 Provider=Greentube Name=Dolphins' Pearl cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>100 2148 ID=2195 Provider=TwoWinPower Name=Dolphin's Pearl cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>101 2159 ID=2497 Provider=NYX Name=Double Happiness cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>102 2165 ID=26973 Provider=Edict Name=DoubleTripleChance cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>103 2175 ID=2498 Provider=NYX Name=Dragon Emperor cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>104 2195 ID=2486 Provider=Greentube Name=Dragon’s deep cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>105 2197 ID=26971 Provider=Edict Name=Dragon’sTreasure cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>106 2200 ID=76175 Provider=Edict Name=Dragons Axe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>107 2210 ID=29252 Provider=Edict Name=Dragon's Treasure II HTML5 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>108 2213 ID=25993 Provider=Edict Name=Dragon'sMaid cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>109 2217 ID=25820 Provider=Edict Name=Dragull cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>110 2219 ID=25995 Provider=Edict Name=DreamingIsland cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>111 2234 ID=2444 Provider=Greentube Name=Dynasty of Ra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>112 2245 ID=2518 Provider=NYX Name=Eastern Dragon cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>113 2248 ID=76142 Provider=Edict Name=Eggstra Wilds cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>114 2249 ID=75341 Provider=Edict Name=Egyptian Diamonds cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>115 2263 ID=75668 Provider=Edict Name=Electric Fruit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>116 2266 ID=26309 Provider=Edict Name=ElMolinador cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>117 2273 ID=2519 Provider=NYX Name=Emperors Garden cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>118 2276 ID=2493 Provider=Greentube Name=Empire V cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>119 2281 ID=26952 Provider=Edict Name=EndlessSummer cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>120 2283 ID=76272 Provider=Edict Name=Energy Burst cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>121 2308 ID=25370 Provider=GameArt Name=ExplosiveReels cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>122 2309 ID=2418 Provider=EGT Name=Extra Joker cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>123 2311 ID=28627 Provider=Edict Name=Extra Liner Jackpot cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>124 2312 ID=7052 Provider=ZeusPlay Name=Extra Super Hot Barbeque cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>125 2314 ID=26950 Provider=Edict Name=Extra10Liner cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>126 2315 ID=26949 Provider=Edict Name=ExtraWild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>127 2316 ID=2420 Provider=EGT Name=Extremely Hot cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>128 2322 ID=2489 Provider=Greentube Name=Eye Of The Dragon cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>129 2334 ID=7056 Provider=ZeusPlay Name=Fairy's Golden Path cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>130 2337 ID=26005 Provider=Edict Name=FallenAlien cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>131 2339 ID=26946 Provider=Edict Name=FantasticFruit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>132 2342 ID=75190 Provider=PushGaming Name=Fat Drac cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>133 2345 ID=29984 Provider=PushGaming Name=Fat Santa cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>134 2346 ID=2376 Provider=Greentube Name=Faust cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>135 2360 ID=29966 Provider=Edict Name=Fight of Terragon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>136 2363 ID=28615 Provider=Edict Name=Fire and Ice cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>137 2370 ID=23296 Provider=IGT Name=Fire Opals cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>138 2378 ID=26945 Provider=Edict Name=FireofEgypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>139 2379 ID=29201 Provider=Edict Name=First Dynasty cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>140 2393 ID=2445 Provider=Greentube Name=Flamenco Roses cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>141 2395 ID=26310 Provider=Edict Name=FlamesOfEgypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>142 2410 ID=25535 Provider=Edict Name=ForbiddenPrincess cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>143 2429 ID=2422 Provider=EGT Name=Fortune Spells cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>144 2436 ID=28635 Provider=Edict Name=Fountain of Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>145 2455 ID=2488 Provider=Greentube Name=Fruit Farm cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>146 2458 ID=53027 Provider=Mascot Name=Fruit Macau cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -531,7 +540,7 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>144 2546 ID=53028 Provider=Mascot Name=Fruit Monaco cod=21 description=&lt;html&gt;
+    <t>147 2461 ID=53028 Provider=Mascot Name=Fruit Monaco cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -542,13 +551,13 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>145 2548 ID=2198 Provider=TwoWinPower Name=Fruit Sensation cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>146 2549 ID=2391 Provider=Greentube Name=Fruit Sensation cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>147 2550 ID=53019 Provider=Mascot Name=Fruit Vegas cod=21 description=&lt;html&gt;
+    <t>148 2463 ID=2198 Provider=TwoWinPower Name=Fruit Sensation cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>149 2464 ID=2391 Provider=Greentube Name=Fruit Sensation cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>150 2465 ID=53019 Provider=Mascot Name=Fruit Vegas cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -559,31 +568,34 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>148 2558 ID=26941 Provider=Edict Name=Fruitinator cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>149 2560 ID=26940 Provider=Edict Name=Fruitopia cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>150 2573 ID=76244 Provider=Edict Name=Fruits Tastylicious cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>151 2580 ID=2392 Provider=Greentube Name=Fruits'n Royals cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>152 2592 ID=2521 Provider=NYX Name=Funky Chicken cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>153 2600 ID=2356 Provider=EGT Name=Game Of Luck cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>154 2604 ID=2470 Provider=Igrosoft Name=Garage cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>155 2605 ID=23297 Provider=IGT Name=Garden Party cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>156 2625 ID=53015 Provider=Mascot Name=Gemz Grow cod=21 description=&lt;html&gt;
+    <t>151 2473 ID=26941 Provider=Edict Name=Fruitinator cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>152 2475 ID=26940 Provider=Edict Name=Fruitopia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>153 2488 ID=76244 Provider=Edict Name=Fruits Tastylicious cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>154 2495 ID=2392 Provider=Greentube Name=Fruits'n Royals cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>155 2507 ID=2521 Provider=NYX Name=Funky Chicken cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>156 2515 ID=2356 Provider=EGT Name=Game Of Luck cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>157 2519 ID=2470 Provider=Igrosoft Name=Garage cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>158 2520 ID=23297 Provider=IGT Name=Garden Party cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>159 2521 ID=26361 Provider=Fugaso Name=Gates of Hell cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>160 2540 ID=53015 Provider=Mascot Name=Gemz Grow cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -594,70 +606,49 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>157 2627 ID=75172 Provider=QuickSpin Name=Genies Touch cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>158 2628 ID=29263 Provider=Edict Name=Genie's Wonderlamp cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>159 2631 ID=28858 Provider=QuickSpin Name=Ghost Glyph cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>160 2635 ID=26938 Provider=Edict Name=GhostSlider cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>161 2643 ID=29395 Provider=Edict Name=Gladiators cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>162 2666 ID=27531 Provider=QuickSpin Name=Gold Lab cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>163 2680 ID=26934 Provider=Edict Name=GoldBeaver cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>164 2681 ID=26933 Provider=Edict Name=Goldbird cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>165 2683 ID=26936 Provider=Edict Name=GoldCup cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>166 2684 ID=2377 Provider=Greentube Name=Golden Ark cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>167 2693 ID=2452 Provider=Greentube Name=Golden Cobras Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>168 2702 ID=29636 Provider=QuickSpin Name=Golden Glyph 2 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>169 2723 ID=29882 Provider=ISoftBet Name=Golden Tiger cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>170 2730 ID=26932 Provider=Edict Name=GoldenGate cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>171 2732 ID=25288 Provider=QuickSpin Name=GoldenGlyph cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>172 2734 ID=25536 Provider=Edict Name=GoldFrenzy cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>173 2735 ID=25283 Provider=QuickSpin Name=GoldilocksandtheWildBears cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>174 2736 ID=26935 Provider=Edict Name=GoldofPersia cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>175 2742 ID=75894 Provider=Edict Name=Gong Hei Gong Hei cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>176 2745 ID=2424 Provider=EGT Name=Grace Of Cleopatra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>177 2747 ID=23298 Provider=IGT Name=Grand Monarch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>178 2764 ID=53020 Provider=Mascot Name=Gryphons Castle cod=21 description=&lt;html&gt;
+    <t>161 2543 ID=29263 Provider=Edict Name=Genie's Wonderlamp cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>162 2549 ID=26938 Provider=Edict Name=GhostSlider cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>163 2557 ID=29395 Provider=Edict Name=Gladiators cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>164 2594 ID=26934 Provider=Edict Name=GoldBeaver cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>165 2595 ID=26933 Provider=Edict Name=Goldbird cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>166 2597 ID=26936 Provider=Edict Name=GoldCup cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>167 2598 ID=2377 Provider=Greentube Name=Golden Ark cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>168 2607 ID=2452 Provider=Greentube Name=Golden Cobras Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>169 2642 ID=26932 Provider=Edict Name=GoldenGate cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>170 2645 ID=25536 Provider=Edict Name=GoldFrenzy cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>171 2647 ID=26935 Provider=Edict Name=GoldofPersia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>172 2653 ID=75894 Provider=Edict Name=Gong Hei Gong Hei cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>173 2656 ID=2424 Provider=EGT Name=Grace Of Cleopatra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>174 2658 ID=23298 Provider=IGT Name=Grand Monarch cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>175 2675 ID=53020 Provider=Mascot Name=Gryphons Castle cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -668,22 +659,16 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>179 2766 ID=2390 Provider=Greentube Name=Gryphons' Gold Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>180 2768 ID=29747 Provider=QuickSpin Name=Guardian Of Athens cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>181 2776 ID=26548 Provider=QuickSpin Name=HalloftheMountainKing cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>182 2781 ID=28851 Provider=QuickSpin Name=Hammer of Vulcan cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>183 2811 ID=2396 Provider=Greentube Name=Helena cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>184 2815 ID=53022 Provider=Mascot Name=Hell'Sing cod=21 description=&lt;html&gt;
+    <t>176 2677 ID=2390 Provider=Greentube Name=Gryphons' Gold Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>177 2705 ID=7057 Provider=ZeusPlay Name=Haunted Walker cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>178 2719 ID=2396 Provider=Greentube Name=Helena cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>179 2723 ID=53022 Provider=Mascot Name=Hell'Sing cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -694,115 +679,112 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>185 2821 ID=26930 Provider=Edict Name=HexenKessel cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>186 2823 ID=27468 Provider=QuickSpin Name=HiddenValley cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>187 2824 ID=29460 Provider=Edict Name=Hide &amp; Seek cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>188 2825 ID=76113 Provider=QuickSpin Name=High Street Heist cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>189 2838 ID=29455 Provider=Edict Name=Hocus Pocus Deluxe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>190 2855 ID=2262 Provider=TwoWinPower Name=Hot Chance cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>191 2856 ID=2453 Provider=Greentube Name=Hot Chance cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>192 2862 ID=28616 Provider=Edict Name=Hot Dragon cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>193 2888 ID=26929 Provider=Edict Name=HotFlame cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>194 2893 ID=27528 Provider=QuickSpin Name=HotSync cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>195 2906 ID=75996 Provider=Edict Name=Hyper Fruits cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>196 2917 ID=27535 Provider=QuickSpin Name=Illuminous cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>197 2928 ID=2425 Provider=EGT Name=Inca Gold II cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>198 2935 ID=29437 Provider=Edict Name=Indian Ruby cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>199 2936 ID=2395 Provider=Greentube Name=Indian Spirit cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>200 2948 ID=2510 Provider=NYX Name=Irish Eyes 2 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>201 2955 ID=2473 Provider=Igrosoft Name=Island 2 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>202 2956 ID=27136 Provider=QuickSpin Name=IvanandtheImmortalKing cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>203 2968 ID=2511 Provider=NYX Name=Jade Idol cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>204 2977 ID=29453 Provider=Edict Name=Jamboree Jubilee cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>205 2986 ID=23299 Provider=IGT Name=Jewel of the Arts cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>206 2990 ID=2524 Provider=Novomatic Name=Jewels 4 All BTD cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>207 3014 ID=75787 Provider=Edict Name=Joker Nature cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>208 3029 ID=27485 Provider=QuickSpin Name=JokerStrike cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>209 3033 ID=26928 Provider=Edict Name=Jolly'sCap cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>210 3057 ID=2378 Provider=Greentube Name=Just Jewels Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>211 3061 ID=29519 Provider=Edict Name=Kaiserwetter cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>212 3063 ID=2426 Provider=EGT Name=Kashmir Gold cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>213 3064 ID=2214 Provider=TwoWinPower Name=Katana cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>214 3065 ID=2379 Provider=Greentube Name=Katana cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>215 3068 ID=26927 Provider=Edict Name=KeyoftheNile cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>216 3080 ID=27540 Provider=QuickSpin Name=KingColossus cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>217 3093 ID=23300 Provider=IGT Name=Kitty Glitter cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>218 3096 ID=26924 Provider=Edict Name=Knight'sLife cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>219 3099 ID=26923 Provider=Edict Name=KnockoutWins cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>220 3136 ID=29595 Provider=Edict Name=Legendary Palace cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>221 3142 ID=53017 Provider=Mascot Name=Legioner cod=21 description=&lt;html&gt;
+    <t>180 2729 ID=26930 Provider=Edict Name=HexenKessel cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>181 2732 ID=29460 Provider=Edict Name=Hide &amp; Seek cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>182 2745 ID=29455 Provider=Edict Name=Hocus Pocus Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>183 2762 ID=2262 Provider=TwoWinPower Name=Hot Chance cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>184 2763 ID=2453 Provider=Greentube Name=Hot Chance cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>185 2769 ID=28616 Provider=Edict Name=Hot Dragon cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>186 2796 ID=26929 Provider=Edict Name=HotFlame cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>187 2813 ID=75996 Provider=Edict Name=Hyper Fruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>188 2827 ID=26330 Provider=Fugaso Name=ImhotepManuscript cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>189 2835 ID=2425 Provider=EGT Name=Inca Gold II cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>190 2842 ID=29437 Provider=Edict Name=Indian Ruby cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>191 2843 ID=2395 Provider=Greentube Name=Indian Spirit cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>192 2855 ID=2510 Provider=NYX Name=Irish Eyes 2 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>193 2862 ID=2473 Provider=Igrosoft Name=Island 2 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>194 2875 ID=2511 Provider=NYX Name=Jade Idol cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>195 2884 ID=29453 Provider=Edict Name=Jamboree Jubilee cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>196 2886 ID=29989 Provider=PushGaming Name=Jammin Jars cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>197 2887 ID=29973 Provider=PushGaming Name=Jammin' Jars 2 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>198 2893 ID=23299 Provider=IGT Name=Jewel of the Arts cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>199 2897 ID=2524 Provider=Novomatic Name=Jewels 4 All BTD cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>200 2899 ID=26432 Provider=Fugaso Name=JewelSea cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>201 2921 ID=75787 Provider=Edict Name=Joker Nature cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>202 2931 ID=29993 Provider=PushGaming Name=Joker Troupe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>203 2940 ID=26928 Provider=Edict Name=Jolly'sCap cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>204 2964 ID=2378 Provider=Greentube Name=Just Jewels Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>205 2968 ID=29519 Provider=Edict Name=Kaiserwetter cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>206 2970 ID=2426 Provider=EGT Name=Kashmir Gold cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>207 2971 ID=2214 Provider=TwoWinPower Name=Katana cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>208 2972 ID=2379 Provider=Greentube Name=Katana cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>209 2975 ID=26927 Provider=Edict Name=KeyoftheNile cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>210 2999 ID=23300 Provider=IGT Name=Kitty Glitter cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>211 3002 ID=26924 Provider=Edict Name=Knight'sLife cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>212 3005 ID=26923 Provider=Edict Name=KnockoutWins cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>213 3022 ID=29978 Provider=PushGaming Name=Land of Zenith cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>214 3042 ID=29595 Provider=Edict Name=Legendary Palace cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>215 3048 ID=53017 Provider=Mascot Name=Legioner cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -813,22 +795,19 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>222 3144 ID=2455 Provider=Greentube Name=Leonardo's Code cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>223 3151 ID=27527 Provider=QuickSpin Name=LeprechaunHills cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>224 3153 ID=26920 Provider=Edict Name=LibertyBells cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>225 3155 ID=26919 Provider=Edict Name=LightBlocks cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>226 3157 ID=76075 Provider=Edict Name=Lights of Xia cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>227 3163 ID=53002 Provider=Mascot Name=Lions Pride cod=21 description=&lt;html&gt;
+    <t>216 3050 ID=2455 Provider=Greentube Name=Leonardo's Code cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>217 3059 ID=26920 Provider=Edict Name=LibertyBells cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>218 3061 ID=26919 Provider=Edict Name=LightBlocks cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>219 3063 ID=76075 Provider=Edict Name=Lights of Xia cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>220 3069 ID=53002 Provider=Mascot Name=Lions Pride cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -839,73 +818,70 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>228 3167 ID=28846 Provider=QuickSpin Name=Loco the Monkey cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>229 3176 ID=2381 Provider=Greentube Name=Lord Of The Ocean cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>230 3199 ID=2427 Provider=EGT Name=Lucky And Wild cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>231 3220 ID=2475 Provider=Igrosoft Name=Lucky Haunter cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>232 3221 ID=2428 Provider=EGT Name=Lucky Hot cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>233 3226 ID=2485 Provider=Greentube Name=Lucky L. Charm 6 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>234 3227 ID=2194 Provider=TwoWinPower Name=Lucky Lady's Charm cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>235 3228 ID=2380 Provider=Greentube Name=Lucky Lady's Charm cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>236 3265 ID=2512 Provider=NYX Name=Mad Mad Monkey cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>237 3293 ID=29246 Provider=Edict Name=Magic Mirror Three Lions Deluxe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>238 3294 ID=29820 Provider=Edict Name=Magic Mirror Wild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>239 3296 ID=75792 Provider=Edict Name=Magic Monk Rasputin X-Mas Edition cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>240 3320 ID=26916 Provider=Edict Name=MagicMirror cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>241 3321 ID=26915 Provider=Edict Name=MagicMirrorDeluxeII cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>242 3322 ID=26914 Provider=Edict Name=MagicMonkRasputin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>243 3327 ID=75251 Provider=Edict Name=Magika Boola cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>244 3329 ID=2429 Provider=EGT Name=Majestic Forest cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>245 3349 ID=23301 Provider=IGT Name=Masques of San Marco cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>246 3357 ID=23302 Provider=IGT Name=Mayan Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>247 3358 ID=27546 Provider=QuickSpin Name=Mayana cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>248 3364 ID=2397 Provider=Greentube Name=Mega Joker cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>249 3374 ID=26912 Provider=Edict Name=MerkurMagnus7 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>250 3378 ID=53009 Provider=Mascot Name=Merlin's Tower cod=21 description=&lt;html&gt;
+    <t>221 3081 ID=2381 Provider=Greentube Name=Lord Of The Ocean cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>222 3104 ID=2427 Provider=EGT Name=Lucky And Wild cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>223 3125 ID=2475 Provider=Igrosoft Name=Lucky Haunter cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>224 3126 ID=2428 Provider=EGT Name=Lucky Hot cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>225 3131 ID=2485 Provider=Greentube Name=Lucky L. Charm 6 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>226 3132 ID=2194 Provider=TwoWinPower Name=Lucky Lady's Charm cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>227 3133 ID=2380 Provider=Greentube Name=Lucky Lady's Charm cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>228 3169 ID=7053 Provider=ZeusPlay Name=Mad Cubes 50 cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>229 3170 ID=2512 Provider=NYX Name=Mad Mad Monkey cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>230 3198 ID=29246 Provider=Edict Name=Magic Mirror Three Lions Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>231 3199 ID=29820 Provider=Edict Name=Magic Mirror Wild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>232 3201 ID=75792 Provider=Edict Name=Magic Monk Rasputin X-Mas Edition cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>233 3225 ID=26916 Provider=Edict Name=MagicMirror cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>234 3226 ID=26915 Provider=Edict Name=MagicMirrorDeluxeII cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>235 3227 ID=26914 Provider=Edict Name=MagicMonkRasputin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>236 3232 ID=75251 Provider=Edict Name=Magika Boola cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>237 3234 ID=2429 Provider=EGT Name=Majestic Forest cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>238 3254 ID=23301 Provider=IGT Name=Masques of San Marco cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>239 3262 ID=23302 Provider=IGT Name=Mayan Riches cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>240 3269 ID=2397 Provider=Greentube Name=Mega Joker cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>241 3279 ID=26912 Provider=Edict Name=MerkurMagnus7 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>242 3283 ID=53009 Provider=Mascot Name=Merlin's Tower cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -916,7 +892,7 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>251 3381 ID=53008 Provider=Mascot Name=Mermaid's Bay cod=21 description=&lt;html&gt;
+    <t>243 3286 ID=53008 Provider=Mascot Name=Mermaid's Bay cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -927,7 +903,7 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>252 3385 ID=53023 Provider=Mascot Name=Merry Scary Christmas cod=21 description=&lt;html&gt;
+    <t>244 3290 ID=53023 Provider=Mascot Name=Merry Scary Christmas cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -938,64 +914,58 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>253 3393 ID=29501 Provider=QuickSpin Name=Midas Coins cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>254 3404 ID=27545 Provider=QuickSpin Name=MightyArthur cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>255 3414 ID=2499 Provider=NYX Name=Miss Kitty cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>256 3416 ID=23303 Provider=IGT Name=Miss Red cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>257 3420 ID=26209 Provider=Edict Name=MojitoBeach cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>258 3435 ID=26910 Provider=Edict Name=MonkeyMayhem cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>259 3473 ID=29970 Provider=Edict Name=Multi Wild 243 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>260 3474 ID=28625 Provider=Edict Name=Multi Wild Deluxe cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>261 3477 ID=26909 Provider=Edict Name=MultiFruits cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>262 3478 ID=26908 Provider=Edict Name=MultiSupreme81 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>263 3479 ID=25819 Provider=Edict Name=MultiWild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>264 3481 ID=2490 Provider=Greentube Name=Music Island cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>265 3484 ID=29813 Provider=Edict Name=Mysteries of Karnak cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>266 3500 ID=2213 Provider=TwoWinPower Name=Mystic Secrets cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>267 3501 ID=2382 Provider=Greentube Name=Mystic Secrets cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>268 3510 ID=2430 Provider=EGT Name=Neon Dice cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>269 3515 ID=25285 Provider=QuickSpin Name=Nero'sFortune cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>270 3528 ID=26904 Provider=Edict Name=NileLiner cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>271 3533 ID=23304 Provider=IGT Name=Noahs Ark cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>272 3536 ID=53004 Provider=Mascot Name=Northern Heat cod=21 description=&lt;html&gt;
+    <t>245 3317 ID=2499 Provider=NYX Name=Miss Kitty cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>246 3319 ID=23303 Provider=IGT Name=Miss Red cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>247 3323 ID=26209 Provider=Edict Name=MojitoBeach cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>248 3338 ID=26910 Provider=Edict Name=MonkeyMayhem cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>249 3377 ID=29970 Provider=Edict Name=Multi Wild 243 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>250 3378 ID=28625 Provider=Edict Name=Multi Wild Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>251 3381 ID=26909 Provider=Edict Name=MultiFruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>252 3382 ID=26908 Provider=Edict Name=MultiSupreme81 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>253 3383 ID=25819 Provider=Edict Name=MultiWild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>254 3385 ID=2490 Provider=Greentube Name=Music Island cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>255 3388 ID=29813 Provider=Edict Name=Mysteries of Karnak cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>256 3398 ID=29982 Provider=PushGaming Name=Mystery Museum cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>257 3404 ID=2213 Provider=TwoWinPower Name=Mystic Secrets cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>258 3405 ID=2382 Provider=Greentube Name=Mystic Secrets cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>259 3414 ID=2430 Provider=EGT Name=Neon Dice cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>260 3431 ID=26904 Provider=Edict Name=NileLiner cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>261 3436 ID=23304 Provider=IGT Name=Noahs Ark cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>262 3439 ID=53004 Provider=Mascot Name=Northern Heat cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -1006,82 +976,61 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>273 3537 ID=27560 Provider=QuickSpin Name=NorthernSky cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>274 3547 ID=26903 Provider=Edict Name=Odin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>275 3552 ID=2431 Provider=EGT Name=Oil Company II cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>276 3573 ID=23306 Provider=IGT Name=Pamplona cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>277 3582 ID=25755 Provider=QuickSpin Name=Panther'sReign cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>278 3620 ID=2446 Provider=Greentube Name=Pharaohs Ring cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>279 3628 ID=27529 Provider=QuickSpin Name=Phoenix Sun cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>280 3633 ID=27544 Provider=QuickSpin Name=PiedPiper cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>281 3646 ID=2476 Provider=Igrosoft Name=Pirate cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>282 3660 ID=27483 Provider=QuickSpin Name=Pirate'sCharm cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>283 3663 ID=76258 Provider=Edict Name=Pixielicious cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>284 3665 ID=26899 Provider=Edict Name=PizzaExpress cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>285 3667 ID=2513 Provider=NYX Name=Platinum Pyramid cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>286 3668 ID=2456 Provider=Greentube Name=Plenty of Fruit 20 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>287 3670 ID=2483 Provider=Greentube Name=Plenty Of Fruit 20 H. cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>288 3672 ID=2457 Provider=Greentube Name=Plenty of Fruit 40 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>289 3675 ID=2484 Provider=Greentube Name=Plenty Of Jewels 20H. cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>290 3676 ID=2482 Provider=Greentube Name=Plenty On 20 II Hot cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>291 3677 ID=2394 Provider=Greentube Name=Plenty on Twenty cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>292 3685 ID=26028 Provider=QuickSpin Name=PolarPaws cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>293 3688 ID=28636 Provider=Edict Name=Pop Art Fruits cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>294 3694 ID=2514 Provider=NYX Name=Potion Commotion cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>295 3704 ID=2447 Provider=Greentube Name=Power Stars cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>296 3711 ID=26534 Provider=QuickSpin Name=Prime Zone cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>297 3721 ID=23307 Provider=IGT Name=Prowling Panther cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>298 3729 ID=53010 Provider=Mascot Name=Purple Pills cod=21 description=&lt;html&gt;
+    <t>263 3450 ID=26903 Provider=Edict Name=Odin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>264 3455 ID=2431 Provider=EGT Name=Oil Company II cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>265 3476 ID=23306 Provider=IGT Name=Pamplona cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>266 3522 ID=2446 Provider=Greentube Name=Pharaohs Ring cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>267 3548 ID=2476 Provider=Igrosoft Name=Pirate cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>268 3565 ID=76258 Provider=Edict Name=Pixielicious cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>269 3567 ID=26899 Provider=Edict Name=PizzaExpress cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>270 3569 ID=2513 Provider=NYX Name=Platinum Pyramid cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>271 3570 ID=2456 Provider=Greentube Name=Plenty of Fruit 20 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>272 3572 ID=2483 Provider=Greentube Name=Plenty Of Fruit 20 H. cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>273 3574 ID=2457 Provider=Greentube Name=Plenty of Fruit 40 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>274 3577 ID=2484 Provider=Greentube Name=Plenty Of Jewels 20H. cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>275 3578 ID=2482 Provider=Greentube Name=Plenty On 20 II Hot cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>276 3579 ID=2394 Provider=Greentube Name=Plenty on Twenty cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>277 3589 ID=28636 Provider=Edict Name=Pop Art Fruits cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>278 3595 ID=2514 Provider=NYX Name=Potion Commotion cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>279 3605 ID=2447 Provider=Greentube Name=Power Stars cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>280 3621 ID=23307 Provider=IGT Name=Prowling Panther cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>281 3629 ID=53010 Provider=Mascot Name=Purple Pills cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -1092,49 +1041,46 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>299 3737 ID=28824 Provider=Edict Name=Pyramids of the Nile cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>300 3738 ID=26898 Provider=Edict Name=PyramidsofEgypt cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>301 3742 ID=2487 Provider=Greentube Name=Queen Cleopatra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>302 3750 ID=2245 Provider=TwoWinPower Name=Queen of Hearts cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>303 3751 ID=2383 Provider=Greentube Name=Queen Of Hearts cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>304 3761 ID=2500 Provider=NYX Name=Queen of the Nile II cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>305 3766 ID=26897 Provider=Edict Name=QueenOfMars cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>306 3771 ID=26896 Provider=Edict Name=Racetowin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>307 3779 ID=26895 Provider=Edict Name=Railroad cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>308 3784 ID=2515 Provider=NYX Name=Ramesses Riches cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>309 3788 ID=27542 Provider=QuickSpin Name=Rapunzel's Tower cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>310 3792 ID=27533 Provider=QuickSpin Name=Razortooth cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>311 3795 ID=2350 Provider=TwoWinPower Name=Red Baron cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>312 3796 ID=2501 Provider=NYX Name=Red Baron cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>313 3802 ID=53016 Provider=Mascot Name=Red Horde cod=21 description=&lt;html&gt;
+    <t>282 3637 ID=28824 Provider=Edict Name=Pyramids of the Nile cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>283 3638 ID=26898 Provider=Edict Name=PyramidsofEgypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>284 3642 ID=2487 Provider=Greentube Name=Queen Cleopatra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>285 3650 ID=2245 Provider=TwoWinPower Name=Queen of Hearts cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>286 3651 ID=2383 Provider=Greentube Name=Queen Of Hearts cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>287 3661 ID=2500 Provider=NYX Name=Queen of the Nile II cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>288 3666 ID=26897 Provider=Edict Name=QueenOfMars cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>289 3671 ID=26896 Provider=Edict Name=Racetowin cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>290 3679 ID=26895 Provider=Edict Name=Railroad cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>291 3684 ID=2515 Provider=NYX Name=Ramesses Riches cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>292 3690 ID=29991 Provider=PushGaming Name=Razor Shark cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>293 3694 ID=2350 Provider=TwoWinPower Name=Red Baron cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>294 3695 ID=2501 Provider=NYX Name=Red Baron cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>295 3701 ID=53016 Provider=Mascot Name=Red Horde cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -1145,10 +1091,10 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>314 3815 ID=2458 Provider=Greentube Name=Reel King cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>315 3820 ID=53003 Provider=Mascot Name=ReKill cod=21 description=&lt;html&gt;
+    <t>296 3714 ID=2458 Provider=Greentube Name=Reel King cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>297 3719 ID=53003 Provider=Mascot Name=ReKill cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -1159,31 +1105,31 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>316 3824 ID=75259 Provider=QuickSpin Name=Reno 7's cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>317 3844 ID=2266 Provider=TwoWinPower Name=Rex cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>318 3845 ID=2393 Provider=Greentube Name=Rex cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>319 3872 ID=2433 Provider=EGT Name=Rise Of Ra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>320 3880 ID=26893 Provider=Edict Name=RisingLiner cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>321 3884 ID=2192 Provider=TwoWinPower Name=Roaring Forties cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>322 3885 ID=2385 Provider=Greentube Name=Roaring Forties cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>323 3886 ID=2459 Provider=Greentube Name=Roaring Wilds cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>324 3889 ID=53011 Provider=Mascot Name=Robin of Loxley cod=21 description=&lt;html&gt;
+    <t>298 3723 ID=26340 Provider=Fugaso Name=Resident 3D cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>299 3742 ID=2266 Provider=TwoWinPower Name=Rex cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>300 3743 ID=2393 Provider=Greentube Name=Rex cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>301 3770 ID=2433 Provider=EGT Name=Rise Of Ra cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>302 3778 ID=26893 Provider=Edict Name=RisingLiner cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>303 3782 ID=2192 Provider=TwoWinPower Name=Roaring Forties cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>304 3783 ID=2385 Provider=Greentube Name=Roaring Forties cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>305 3784 ID=2459 Provider=Greentube Name=Roaring Wilds cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>306 3787 ID=53011 Provider=Mascot Name=Robin of Loxley cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -1194,148 +1140,121 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>325 3927 ID=2434 Provider=EGT Name=Royal Secrets cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>326 3935 ID=75147 Provider=Edict Name=Ruby Sevens cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>327 3949 ID=76176 Provider=QuickSpin Name=Sakura Fortune 2 cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>328 3951 ID=25280 Provider=QuickSpin Name=SakuraFortune cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>329 3952 ID=25918 Provider=Edict Name=SalmonCatch cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>330 3968 ID=2516 Provider=NYX Name=Savannah Sunrise cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>331 3978 ID=29438 Provider=Edict Name=Scribes of Thebes cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>332 3991 ID=27532 Provider=QuickSpin Name=Second Strike cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>333 3993 ID=2234 Provider=TwoWinPower Name=Secret Elixir cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>334 3994 ID=2386 Provider=Greentube Name=Secret Elixir cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>335 3998 ID=2398 Provider=Greentube Name=Sevens cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>336 3999 ID=27536 Provider=QuickSpin Name=Sevens High cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>337 4000 ID=29953 Provider=QuickSpin Name=Sevens High Ultra cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>338 4016 ID=29968 Provider=Edict Name=Shenyijing cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>339 4023 ID=2461 Provider=Greentube Name=Shooting Stars cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>340 4027 ID=23308 Provider=IGT Name=Siberian Storm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>341 4031 ID=26889 Provider=Edict Name=SicilianSun cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>342 4035 ID=26888 Provider=Edict Name=Sindbad cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>343 4042 ID=2448 Provider=Greentube Name=Sizzling 6 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>344 4046 ID=2399 Provider=Greentube Name=Sizzling Gems cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>345 4048 ID=2462 Provider=Greentube Name=Sizzling Hot 6 E.Gold cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>346 4050 ID=2387 Provider=Greentube Name=Sizzling Hot Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>347 4057 ID=26025 Provider=QuickSpin Name=Skulls UP! cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>348 4064 ID=26887 Provider=Edict Name=SmartRestart cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>349 4067 ID=75389 Provider=Edict Name=Snake God cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>350 4073 ID=28624 Provider=Edict Name=Snow Wolf Supreme cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>351 4078 ID=75144 Provider=Edict Name=Soul of Nature cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>352 4088 ID=29397 Provider=Edict Name=Sparta cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>353 4105 ID=27556 Provider=QuickSpin Name=Spinions Beach Party cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>354 4106 ID=75394 Provider=QuickSpin Name=Spinions X-mas Party cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>355 4114 ID=26871 Provider=Edict Name=SpiritsOfTheEast cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>356 4129 ID=2463 Provider=Greentube Name=Star Nova cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>357 4132 ID=23309 Provider=IGT Name=Star Trek cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>358 4133 ID=2522 Provider=NYX Name=Starmania cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>359 4141 ID=29556 Provider=QuickSpin Name=Sticky Bandits 3: Most Wanted cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>360 4143 ID=25284 Provider=QuickSpin Name=StickyBandits cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>361 4144 ID=26531 Provider=QuickSpin Name=StickyBandits:WildReturn cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>362 4176 ID=26373 Provider=Edict Name=SuccubusOffer cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>363 4185 ID=23310 Provider=IGT Name=Sumatran Storm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>364 4214 ID=29449 Provider=Edict Name=Super Liner cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>365 4224 ID=26885 Provider=Edict Name=Super7Reels cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>366 4235 ID=29963 Provider=Edict Name=Swahili cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>367 4249 ID=26006 Provider=Edict Name=TacoTuesday cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>368 4261 ID=26843 Provider=QuickSpin Name=TalesofDr.Dolittle cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>369 4309 ID=26848 Provider=QuickSpin Name=The Grand cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>370 4311 ID=2436 Provider=EGT Name=The Great Egypt cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>371 4319 ID=2464 Provider=Greentube Name=The King G.Records cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>372 4340 ID=53006 Provider=Mascot Name=The Rite cod=21 description=&lt;html&gt;
+    <t>307 3802 ID=28575 Provider=Fugaso Name=Romance V cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>308 3825 ID=2434 Provider=EGT Name=Royal Secrets cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>309 3833 ID=75147 Provider=Edict Name=Ruby Sevens cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>310 3848 ID=25918 Provider=Edict Name=SalmonCatch cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>311 3864 ID=2516 Provider=NYX Name=Savannah Sunrise cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>312 3874 ID=29438 Provider=Edict Name=Scribes of Thebes cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>313 3889 ID=2234 Provider=TwoWinPower Name=Secret Elixir cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>314 3890 ID=2386 Provider=Greentube Name=Secret Elixir cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>315 3894 ID=2398 Provider=Greentube Name=Sevens cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>316 3905 ID=61041 Provider=AWC Name=Shark Hunter cod=0 description=null ResponseObject=Code: 1029, Message: Invalid IP address.: [138.201.48.200]</t>
+  </si>
+  <si>
+    <t>317 3911 ID=29968 Provider=Edict Name=Shenyijing cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>318 3918 ID=2461 Provider=Greentube Name=Shooting Stars cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>319 3922 ID=23308 Provider=IGT Name=Siberian Storm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>320 3926 ID=26889 Provider=Edict Name=SicilianSun cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>321 3930 ID=26888 Provider=Edict Name=Sindbad cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>322 3937 ID=2448 Provider=Greentube Name=Sizzling 6 cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>323 3941 ID=2399 Provider=Greentube Name=Sizzling Gems cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>324 3943 ID=2462 Provider=Greentube Name=Sizzling Hot 6 E.Gold cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>325 3945 ID=2387 Provider=Greentube Name=Sizzling Hot Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>326 3958 ID=26887 Provider=Edict Name=SmartRestart cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>327 3961 ID=75389 Provider=Edict Name=Snake God cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>328 3967 ID=28624 Provider=Edict Name=Snow Wolf Supreme cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>329 3972 ID=75144 Provider=Edict Name=Soul of Nature cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>330 3982 ID=29397 Provider=Edict Name=Sparta cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>331 3992 ID=25850 Provider=Fugaso Name=Spin Joker, Spin! cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>332 4007 ID=26871 Provider=Edict Name=SpiritsOfTheEast cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>333 4020 ID=7049 Provider=ZeusPlay Name=Star Frenzy cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>334 4022 ID=2463 Provider=Greentube Name=Star Nova cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>335 4025 ID=23309 Provider=IGT Name=Star Trek cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>336 4026 ID=2522 Provider=NYX Name=Starmania cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>337 4067 ID=26373 Provider=Edict Name=SuccubusOffer cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>338 4076 ID=23310 Provider=IGT Name=Sumatran Storm cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>339 4104 ID=29449 Provider=Edict Name=Super Liner cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>340 4114 ID=26885 Provider=Edict Name=Super7Reels cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>341 4125 ID=29963 Provider=Edict Name=Swahili cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>342 4138 ID=26006 Provider=Edict Name=TacoTuesday cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>343 4200 ID=2436 Provider=EGT Name=The Great Egypt cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>344 4207 ID=2464 Provider=Greentube Name=The King G.Records cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>345 4228 ID=53006 Provider=Mascot Name=The Rite cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -1346,13 +1265,19 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>373 4346 ID=2523 Provider=NYX Name=The Snake Charmer cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>374 4349 ID=76076 Provider=Edict Name=The Three Musketeers cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>375 4351 ID=53014 Provider=Mascot Name=The Tomb: Dragon Emperor's Treasure cod=21 description=&lt;html&gt;
+    <t>346 4233 ID=29988 Provider=PushGaming Name=The Shadow Order cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>347 4234 ID=2523 Provider=NYX Name=The Snake Charmer cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>348 4235 ID=29527 Provider=Fugaso Name=The Sword &amp; The Magic cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>349 4237 ID=76076 Provider=Edict Name=The Three Musketeers cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>350 4239 ID=53014 Provider=Mascot Name=The Tomb: Dragon Emperor's Treasure cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -1363,58 +1288,49 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>376 4385 ID=26868 Provider=QuickSpin Name=TickettotheStars cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>377 4393 ID=27179 Provider=QuickSpin Name=Tiger's Glory cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>378 4394 ID=29821 Provider=QuickSpin Name=Tiger's Glory Ultra cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>379 4405 ID=28850 Provider=QuickSpin Name=Titan Thunder: Wrath of Hades cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>380 4410 ID=29400 Provider=Edict Name=Tizona cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>381 4437 ID=25158 Provider=Edict Name=TreasuresofEgypt cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>382 4442 ID=75138 Provider=Edict Name=Tribe of Thunder cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>383 4444 ID=26878 Provider=Edict Name=TrickyTrio cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>384 4455 ID=25823 Provider=Edict Name=TripleTripleChance cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>385 4462 ID=29447 Provider=Edict Name=Tropical Heat cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>386 4476 ID=2438 Provider=EGT Name=Ultimate Hot cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>387 4479 ID=29445 Provider=Edict Name=Ultra 7 Wild cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>388 4483 ID=2388 Provider=Greentube Name=Ultra Hot Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>389 4503 ID=26877 Provider=Edict Name=Vampires cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>390 4504 ID=75249 Provider=Edict Name=Vampires II cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>391 4507 ID=25287 Provider=QuickSpin Name=VampireSenpai cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>392 4511 ID=23311 Provider=IGT Name=Vegas Baby cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>393 4524 ID=53007 Provider=Mascot Name=Venetian Magic cod=21 description=&lt;html&gt;
+    <t>351 4250 ID=26350 Provider=Fugaso Name=TheMummy2018:BlockPays cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>352 4294 ID=29400 Provider=Edict Name=Tizona cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>353 4321 ID=25158 Provider=Edict Name=TreasuresofEgypt cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>354 4326 ID=75138 Provider=Edict Name=Tribe of Thunder cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>355 4328 ID=26878 Provider=Edict Name=TrickyTrio cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>356 4339 ID=25823 Provider=Edict Name=TripleTripleChance cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>357 4346 ID=29447 Provider=Edict Name=Tropical Heat cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>358 4350 ID=26336 Provider=Fugaso Name=TrumpItDeluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>359 4360 ID=2438 Provider=EGT Name=Ultimate Hot cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>360 4363 ID=29445 Provider=Edict Name=Ultra 7 Wild cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>361 4367 ID=2388 Provider=Greentube Name=Ultra Hot Deluxe cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>362 4387 ID=26877 Provider=Edict Name=Vampires cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>363 4388 ID=75249 Provider=Edict Name=Vampires II cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>364 4394 ID=23311 Provider=IGT Name=Vegas Baby cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>365 4407 ID=53007 Provider=Mascot Name=Venetian Magic cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -1425,46 +1341,46 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>394 4525 ID=2517 Provider=NYX Name=Venetian Rose cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>395 4531 ID=29684 Provider=Edict Name=Viking Towers cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>396 4546 ID=27553 Provider=QuickSpin Name=Volcano Riches cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>397 4549 ID=29443 Provider=Edict Name=Voodoo Shark cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>398 4555 ID=76114 Provider=QuickSpin Name=Warp Wreckers Power Glyph cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>399 4557 ID=23312 Provider=IGT Name=Water Dragons cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>400 4568 ID=2502 Provider=NYX Name=Werewolf Wild cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>401 4570 ID=23313 Provider=IGT Name=Western Belles cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>402 4572 ID=75885 Provider=Edict Name=Western Pacific cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>403 4574 ID=2077 Provider=TwoWinPower Name=Whats Cooking cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>404 4578 ID=23758 Provider=Aristocrat Name=Where's The Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>405 4608 ID=75183 Provider=QuickSpin Name=Wild Harlequin cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>406 4617 ID=29775 Provider=QuickSpin Name=Wild Luchador cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>407 4632 ID=53018 Provider=Mascot Name=Wild Spirit cod=21 description=&lt;html&gt;
+    <t>366 4408 ID=2517 Provider=NYX Name=Venetian Rose cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>367 4410 ID=29990 Provider=PushGaming Name=Viking Clash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>368 4414 ID=29684 Provider=Edict Name=Viking Towers cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>369 4432 ID=29443 Provider=Edict Name=Voodoo Shark cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>370 4437 ID=26341 Provider=Fugaso Name=Warlock's Book cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>371 4439 ID=23312 Provider=IGT Name=Water Dragons cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>372 4450 ID=2502 Provider=NYX Name=Werewolf Wild cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>373 4452 ID=23313 Provider=IGT Name=Western Belles cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>374 4454 ID=75885 Provider=Edict Name=Western Pacific cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>375 4456 ID=2077 Provider=TwoWinPower Name=Whats Cooking cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>376 4459 ID=29979 Provider=PushGaming Name=Wheel of Wonders cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>377 4460 ID=23758 Provider=Aristocrat Name=Where's The Gold cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>378 4509 ID=26342 Provider=Fugaso Name=Wild Rodeo cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>379 4513 ID=53018 Provider=Mascot Name=Wild Spirit cod=21 description=&lt;html&gt;
 &lt;head&gt;&lt;title&gt;400 The SSL certificate error&lt;/title&gt;&lt;/head&gt;
 &lt;body&gt;
 &lt;center&gt;&lt;h1&gt;400 Bad Request&lt;/h1&gt;&lt;/center&gt;
@@ -1475,52 +1391,43 @@
  ResponseObject=null</t>
   </si>
   <si>
-    <t>408 4634 ID=29441 Provider=Edict Name=Wild Supreme cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>409 4647 ID=23314 Provider=IGT Name=Wild Wolf cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
-  </si>
-  <si>
-    <t>410 4650 ID=25756 Provider=QuickSpin Name=WildCauldron cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>411 4651 ID=25286 Provider=QuickSpin Name=WildChase cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>412 4652 ID=26295 Provider=QuickSpin Name=WildChase:TokyoGo cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>413 4661 ID=26875 Provider=Edict Name=WildSpirit cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>414 4662 ID=26376 Provider=QuickSpin Name=WildTomeoftheWoods cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>415 4672 ID=27526 Provider=QuickSpin Name=Wins of Fortune cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>416 4676 ID=75350 Provider=Edict Name=Wishing Well cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>417 4678 ID=2440 Provider=EGT Name=Witches Charm cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>418 4703 ID=25920 Provider=Edict Name=WoopWoop cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>419 4704 ID=26874 Provider=Edict Name=WorldofCircus cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>420 4723 ID=2465 Provider=Greentube Name=Xtra Hot cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
-  </si>
-  <si>
-    <t>421 4734 ID=26872 Provider=Edict Name=Zentaurus cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>422 4743 ID=26873 Provider=Edict Name=Zipper cod=0 description=null ResponseObject=24</t>
-  </si>
-  <si>
-    <t>423 4745 ID=2441 Provider=EGT Name=Zodiac Wheel cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+    <t>380 4515 ID=29441 Provider=Edict Name=Wild Supreme cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>381 4516 ID=29985 Provider=PushGaming Name=Wild Swarm cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>382 4528 ID=23314 Provider=IGT Name=Wild Wolf cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>383 4537 ID=7051 Provider=ZeusPlay Name=Wilds &amp; Pirates cod=0 description=null ResponseObject=No final product_id</t>
+  </si>
+  <si>
+    <t>384 4539 ID=26875 Provider=Edict Name=WildSpirit cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>385 4553 ID=75350 Provider=Edict Name=Wishing Well cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>386 4555 ID=2440 Provider=EGT Name=Witches Charm cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>387 4580 ID=25920 Provider=Edict Name=WoopWoop cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>388 4581 ID=26874 Provider=Edict Name=WorldofCircus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>389 4600 ID=2465 Provider=Greentube Name=Xtra Hot cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
+  </si>
+  <si>
+    <t>390 4611 ID=26872 Provider=Edict Name=Zentaurus cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>391 4620 ID=26873 Provider=Edict Name=Zipper cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>392 4622 ID=2441 Provider=EGT Name=Zodiac Wheel cod=21 description={"name":"Forbidden","message":"Merchant not found","code":0,"status":403} ResponseObject=null</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A423"/>
+  <dimension ref="A1:A392"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3534,161 +3441,6 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="s">
-        <v>422</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
